--- a/Resources/config.xlsx
+++ b/Resources/config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>screenName</t>
   </si>
@@ -154,9 +154,6 @@
     <t>pjpNumber</t>
   </si>
   <si>
-    <t>00105</t>
-  </si>
-  <si>
     <t>orderSource</t>
   </si>
   <si>
@@ -191,6 +188,54 @@
   </si>
   <si>
     <t>NUM</t>
+  </si>
+  <si>
+    <t>Effect Date*</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>LOCUS_DOWNLOAD</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_ONLY</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>OB0011</t>
+  </si>
+  <si>
+    <t>outlet change track excel</t>
+  </si>
+  <si>
+    <t>EXCEL_UPLOAD</t>
+  </si>
+  <si>
+    <t>getGeoHierarchyCode</t>
+  </si>
+  <si>
+    <t>002001</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>50200411</t>
+  </si>
+  <si>
+    <t>0000000098</t>
+  </si>
+  <si>
+    <t>657281537678</t>
+  </si>
+  <si>
+    <t>OutletChannel</t>
+  </si>
+  <si>
+    <t>C01000C11628</t>
   </si>
 </sst>
 </file>
@@ -526,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -565,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -579,21 +624,43 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -603,20 +670,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,136 +694,191 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -866,13 +988,13 @@
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -880,13 +1002,13 @@
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -894,13 +1016,13 @@
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -908,16 +1030,27 @@
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
